--- a/data/TC06_VerifyRoomCount.xlsx
+++ b/data/TC06_VerifyRoomCount.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Adults</t>
   </si>
   <si>
-    <t>Children</t>
-  </si>
-  <si>
     <t>home1234</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>20/05/2016</t>
-  </si>
-  <si>
-    <t>21/05/2016</t>
-  </si>
-  <si>
     <t>1 - One</t>
   </si>
   <si>
@@ -71,6 +62,18 @@
   </si>
   <si>
     <t>Room Type</t>
+  </si>
+  <si>
+    <t>29/05/2016</t>
+  </si>
+  <si>
+    <t>30/05/2016</t>
+  </si>
+  <si>
+    <t>roomCount</t>
+  </si>
+  <si>
+    <t>3 Rooms</t>
   </si>
 </sst>
 </file>
@@ -106,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +419,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +433,7 @@
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -446,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -461,42 +465,43 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/TC06_VerifyRoomCount.xlsx
+++ b/data/TC06_VerifyRoomCount.xlsx
@@ -64,16 +64,16 @@
     <t>Room Type</t>
   </si>
   <si>
-    <t>29/05/2016</t>
-  </si>
-  <si>
-    <t>30/05/2016</t>
-  </si>
-  <si>
     <t>roomCount</t>
   </si>
   <si>
     <t>3 Rooms</t>
+  </si>
+  <si>
+    <t>29/07/2017</t>
+  </si>
+  <si>
+    <t>30/07/2017</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -488,16 +488,16 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
